--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,15 @@
     <t>name</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -61,21 +58,9 @@
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -85,121 +70,124 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -557,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,16 +635,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -676,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -726,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,37 +764,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.92</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L6">
         <v>23</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6">
-        <v>0.925</v>
-      </c>
-      <c r="L6">
-        <v>37</v>
-      </c>
-      <c r="M6">
-        <v>37</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -826,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7647058823529411</v>
+        <v>0.6267123287671232</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8627450980392157</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7402597402597403</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C8">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7272727272727273</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.1763565891472868</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>425</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,49 +1014,49 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5333333333333333</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C11">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>156</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L11">
+        <v>28</v>
+      </c>
+      <c r="M11">
+        <v>28</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>8</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L11">
-        <v>41</v>
-      </c>
-      <c r="M11">
-        <v>41</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4285714285714285</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,319 +1082,175 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.775</v>
+      </c>
+      <c r="L12">
+        <v>93</v>
+      </c>
+      <c r="M12">
+        <v>93</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="L13">
+        <v>17</v>
+      </c>
+      <c r="M13">
+        <v>17</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>0.765625</v>
+      </c>
+      <c r="L14">
+        <v>98</v>
+      </c>
+      <c r="M14">
+        <v>98</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L15">
+        <v>38</v>
+      </c>
+      <c r="M15">
+        <v>38</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>0.7253521126760564</v>
+      </c>
+      <c r="L16">
+        <v>103</v>
+      </c>
+      <c r="M16">
+        <v>103</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>0.70625</v>
+      </c>
+      <c r="L17">
+        <v>113</v>
+      </c>
+      <c r="M17">
+        <v>113</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K12">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L12">
-        <v>7</v>
-      </c>
-      <c r="M12">
-        <v>7</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L13">
-        <v>13</v>
-      </c>
-      <c r="M13">
-        <v>13</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
+      <c r="K18">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L18">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L14">
-        <v>22</v>
-      </c>
-      <c r="M14">
-        <v>22</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.3090128755364807</v>
-      </c>
-      <c r="C15">
-        <v>72</v>
-      </c>
-      <c r="D15">
-        <v>72</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>161</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L15">
-        <v>43</v>
-      </c>
-      <c r="M15">
-        <v>43</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>66</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>0.72</v>
-      </c>
-      <c r="L16">
-        <v>18</v>
-      </c>
-      <c r="M16">
-        <v>18</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2125</v>
-      </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>63</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L17">
-        <v>28</v>
-      </c>
-      <c r="M17">
-        <v>28</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L18">
-        <v>18</v>
-      </c>
       <c r="M18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,246 +1265,246 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>0.6981132075471698</v>
+      </c>
+      <c r="L19">
+        <v>74</v>
+      </c>
+      <c r="M19">
+        <v>74</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L20">
+        <v>16</v>
+      </c>
+      <c r="M20">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>0.62</v>
+      </c>
+      <c r="L21">
+        <v>31</v>
+      </c>
+      <c r="M21">
+        <v>31</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="L22">
+        <v>22</v>
+      </c>
+      <c r="M22">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>0.6031746031746031</v>
+      </c>
+      <c r="L23">
+        <v>38</v>
+      </c>
+      <c r="M23">
+        <v>38</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L24">
+        <v>56</v>
+      </c>
+      <c r="M24">
+        <v>56</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K19">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>9</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
+      <c r="K25">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L25">
+        <v>28</v>
+      </c>
+      <c r="M25">
+        <v>28</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K20">
-        <v>0.6875</v>
-      </c>
-      <c r="L20">
-        <v>11</v>
-      </c>
-      <c r="M20">
-        <v>11</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
+      <c r="K26">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="L26">
+        <v>27</v>
+      </c>
+      <c r="M26">
+        <v>27</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K21">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L21">
-        <v>49</v>
-      </c>
-      <c r="M21">
-        <v>49</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
+      <c r="K27">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L27">
+        <v>15</v>
+      </c>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K22">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <v>11</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L23">
-        <v>7</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24">
-        <v>0.625</v>
-      </c>
-      <c r="L24">
-        <v>15</v>
-      </c>
-      <c r="M24">
-        <v>15</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25">
-        <v>0.6</v>
-      </c>
-      <c r="L25">
-        <v>15</v>
-      </c>
-      <c r="M25">
-        <v>15</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L26">
-        <v>7</v>
-      </c>
-      <c r="M26">
-        <v>7</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L27">
-        <v>11</v>
-      </c>
-      <c r="M27">
-        <v>11</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K28">
-        <v>0.5454545454545454</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L28">
         <v>18</v>
@@ -1678,21 +1522,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5305164319248826</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L29">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="M29">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1704,21 +1548,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.5277777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1730,21 +1574,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1756,21 +1600,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1782,21 +1626,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4883720930232558</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L33">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="M33">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1808,21 +1652,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>66</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4857142857142857</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1834,21 +1678,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.4090909090909091</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L35">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1860,21 +1704,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.4021739130434783</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1886,21 +1730,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.3214285714285715</v>
+        <v>0.3221757322175732</v>
       </c>
       <c r="L37">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1912,21 +1756,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.28</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1938,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.1842105263157895</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1964,7 +1808,59 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>31</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40">
+        <v>0.203125</v>
+      </c>
+      <c r="L40">
+        <v>13</v>
+      </c>
+      <c r="M40">
+        <v>13</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41">
+        <v>0.004184100418410041</v>
+      </c>
+      <c r="L41">
+        <v>13</v>
+      </c>
+      <c r="M41">
+        <v>13</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>3094</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,15 +43,18 @@
     <t>killed</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -73,118 +76,124 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>sure</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -545,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,16 +644,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -664,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7307692307692307</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -785,16 +794,16 @@
         <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6267123287671232</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C7">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5862068965517241</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1866666666666667</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1763565891472868</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C10">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,31 +991,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>425</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10">
+        <v>0.796875</v>
+      </c>
+      <c r="L10">
+        <v>102</v>
+      </c>
+      <c r="M10">
+        <v>102</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="L10">
-        <v>15</v>
-      </c>
-      <c r="M10">
-        <v>15</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1746031746031746</v>
+        <v>0.1821705426356589</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>156</v>
+        <v>422</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.09395973154362416</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1082,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12">
         <v>0.775</v>
@@ -1110,43 +1119,67 @@
       </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.1073825503355705</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>133</v>
+      </c>
       <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.7264150943396226</v>
+      </c>
+      <c r="L13">
+        <v>77</v>
+      </c>
+      <c r="M13">
+        <v>77</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>29</v>
-      </c>
-      <c r="K13">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="L13">
-        <v>17</v>
-      </c>
-      <c r="M13">
-        <v>17</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.765625</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L14">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1158,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7450980392156863</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1184,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.7253521126760564</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1210,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.70625</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1236,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.7037037037037037</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1262,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.6981132075471698</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L19">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1288,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K20">
         <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1314,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.62</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1340,47 +1373,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.6111111111111112</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L22">
+        <v>41</v>
+      </c>
+      <c r="M22">
+        <v>41</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>22</v>
-      </c>
-      <c r="M22">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.6031746031746031</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1392,21 +1425,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5957446808510638</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1418,21 +1451,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.5833333333333334</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1444,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.574468085106383</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1470,15 +1503,15 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5555555555555556</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L27">
         <v>15</v>
@@ -1496,21 +1529,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5294117647058824</v>
+        <v>0.5013054830287206</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1522,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5091383812010444</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1548,21 +1581,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>188</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1574,21 +1607,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.4705882352941176</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L31">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1600,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>180</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.449438202247191</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1626,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4203389830508474</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L33">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M33">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1652,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.410958904109589</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1678,21 +1711,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.3717948717948718</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1704,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.3333333333333333</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1730,21 +1763,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.3221757322175732</v>
+        <v>0.35</v>
       </c>
       <c r="L37">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1756,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>162</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.2923076923076923</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1782,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>46</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.2142857142857143</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1808,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.203125</v>
+        <v>0.296875</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1834,33 +1867,85 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.004184100418410041</v>
+        <v>0.01677852348993289</v>
       </c>
       <c r="L41">
+        <v>15</v>
+      </c>
+      <c r="M41">
+        <v>15</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42">
+        <v>0.006069094304388422</v>
+      </c>
+      <c r="L42">
         <v>13</v>
       </c>
-      <c r="M41">
-        <v>13</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>3094</v>
+      <c r="M42">
+        <v>14</v>
+      </c>
+      <c r="N42">
+        <v>0.93</v>
+      </c>
+      <c r="O42">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43">
+        <v>0.004505954296749276</v>
+      </c>
+      <c r="L43">
+        <v>14</v>
+      </c>
+      <c r="M43">
+        <v>14</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>3093</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,24 +49,27 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -76,118 +79,127 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>share</t>
   </si>
   <si>
     <t>store</t>
@@ -554,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,16 +656,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,16 +706,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,37 +785,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6538461538461539</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8536585365853658</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6027397260273972</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5517241379310345</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2266666666666667</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.796875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L10">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1821705426356589</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="C11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.875</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1481481481481481</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.775</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,63 +1135,87 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1073825503355705</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>158</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L13">
+        <v>66</v>
+      </c>
+      <c r="M13">
+        <v>66</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>16</v>
       </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>133</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.7264150943396226</v>
-      </c>
-      <c r="L13">
-        <v>77</v>
-      </c>
-      <c r="M13">
-        <v>77</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>29</v>
-      </c>
     </row>
     <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.1006711409395973</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>134</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7254901960784313</v>
+        <v>0.796875</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1191,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7253521126760564</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1217,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7222222222222222</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1243,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.71875</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L17">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1269,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.6842105263157895</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1295,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.6818181818181818</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1326,16 +1362,16 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1347,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7375</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1373,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6507936507936508</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1399,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.6041666666666666</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1425,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1451,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.5851063829787234</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L25">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M25">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1477,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5416666666666666</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1503,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5357142857142857</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1529,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5013054830287206</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L28">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1555,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>191</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1581,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.4588235294117647</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1607,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>184</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.4383561643835616</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1633,21 +1669,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.4269662921348314</v>
+        <v>0.4882506527415144</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1659,21 +1695,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>51</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4101694915254237</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L33">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="M33">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1685,15 +1721,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.3829787234042553</v>
+        <v>0.45</v>
       </c>
       <c r="L34">
         <v>18</v>
@@ -1711,21 +1747,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.358974358974359</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1742,16 +1778,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.3555555555555556</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1763,21 +1799,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1789,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.3389121338912134</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L38">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1815,21 +1851,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>158</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.3384615384615385</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1841,21 +1877,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.296875</v>
+        <v>0.359375</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1867,21 +1903,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.01677852348993289</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1893,58 +1929,136 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>879</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.006069094304388422</v>
+        <v>0.3263598326359833</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="N42">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>2129</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K43">
+        <v>0.2428571428571429</v>
+      </c>
+      <c r="L43">
+        <v>17</v>
+      </c>
+      <c r="M43">
+        <v>17</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44">
+        <v>0.01789709172259508</v>
+      </c>
+      <c r="L44">
+        <v>16</v>
+      </c>
+      <c r="M44">
+        <v>16</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45">
+        <v>0.007466168922071862</v>
+      </c>
+      <c r="L45">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>16</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46">
         <v>0.004505954296749276</v>
       </c>
-      <c r="L43">
+      <c r="L46">
         <v>14</v>
       </c>
-      <c r="M43">
+      <c r="M46">
         <v>14</v>
       </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>3093</v>
       </c>
     </row>
